--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22F636-A98D-46FD-83C9-CC1710B83BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041DA1E3-A93A-4FCB-BF17-5B45034F579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A51B0C9-EB32-460D-A9F4-29A2A31B4EA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Andar desde Est. Tren a Est, Bus</t>
+  </si>
+  <si>
+    <t>Flexible</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701F962-A46A-46F8-AD27-95F86810D688}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,8 +631,9 @@
     <col min="8" max="8" width="11.42578125" style="6"/>
     <col min="9" max="11" width="11.42578125" style="10"/>
     <col min="12" max="12" width="11.42578125" style="5"/>
-    <col min="13" max="15" width="11.42578125" style="7"/>
-    <col min="16" max="16" width="11.42578125" style="12"/>
+    <col min="13" max="14" width="11.42578125" style="7"/>
+    <col min="15" max="15" width="22.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -3378,15 +3382,6 @@
       <c r="H62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I62" s="10">
-        <v>0</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0</v>
-      </c>
-      <c r="K62" s="10">
-        <v>5.5555555555555558E-3</v>
-      </c>
       <c r="L62" s="5" t="s">
         <v>18</v>
       </c>
@@ -3394,7 +3389,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="O62" s="10">
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3422,15 +3420,6 @@
       <c r="H63" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I63" s="10">
-        <v>0</v>
-      </c>
-      <c r="J63" s="10">
-        <v>0</v>
-      </c>
-      <c r="K63" s="10">
-        <v>5.5555555555555558E-3</v>
-      </c>
       <c r="L63" s="5" t="s">
         <v>18</v>
       </c>
@@ -3438,7 +3427,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="O63" s="10">
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3466,15 +3458,6 @@
       <c r="H64" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="10">
-        <v>0</v>
-      </c>
-      <c r="J64" s="10">
-        <v>0</v>
-      </c>
-      <c r="K64" s="10">
-        <v>8.3333333333333332E-3</v>
-      </c>
       <c r="L64" s="5" t="s">
         <v>18</v>
       </c>
@@ -3482,10 +3465,13 @@
         <v>0</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O64" s="10">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -3510,15 +3496,6 @@
       <c r="H65" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I65" s="10">
-        <v>0</v>
-      </c>
-      <c r="J65" s="10">
-        <v>0</v>
-      </c>
-      <c r="K65" s="10">
-        <v>8.3333333333333332E-3</v>
-      </c>
       <c r="L65" s="5" t="s">
         <v>18</v>
       </c>
@@ -3526,10 +3503,13 @@
         <v>0</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O65" s="10">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -3554,15 +3534,6 @@
       <c r="H66" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I66" s="10">
-        <v>0</v>
-      </c>
-      <c r="J66" s="10">
-        <v>0</v>
-      </c>
-      <c r="K66" s="10">
-        <v>1.7361111111111112E-2</v>
-      </c>
       <c r="L66" s="5" t="s">
         <v>18</v>
       </c>
@@ -3570,10 +3541,13 @@
         <v>0</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O66" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>67</v>
       </c>
@@ -3598,15 +3572,6 @@
       <c r="H67" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I67" s="10">
-        <v>0</v>
-      </c>
-      <c r="J67" s="10">
-        <v>0</v>
-      </c>
-      <c r="K67" s="10">
-        <v>1.7361111111111112E-2</v>
-      </c>
       <c r="L67" s="5" t="s">
         <v>18</v>
       </c>
@@ -3614,10 +3579,13 @@
         <v>0</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O67" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -3642,15 +3610,6 @@
       <c r="H68" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I68" s="10">
-        <v>0</v>
-      </c>
-      <c r="J68" s="10">
-        <v>0</v>
-      </c>
-      <c r="K68" s="10">
-        <v>2.4305555555555556E-2</v>
-      </c>
       <c r="L68" s="5" t="s">
         <v>18</v>
       </c>
@@ -3658,10 +3617,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O68" s="10">
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -3686,15 +3648,6 @@
       <c r="H69" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I69" s="10">
-        <v>0</v>
-      </c>
-      <c r="J69" s="10">
-        <v>0</v>
-      </c>
-      <c r="K69" s="10">
-        <v>2.4305555555555556E-2</v>
-      </c>
       <c r="L69" s="5" t="s">
         <v>18</v>
       </c>
@@ -3702,7 +3655,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="O69" s="10">
+        <v>2.4305555555555556E-2</v>
       </c>
     </row>
   </sheetData>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041DA1E3-A93A-4FCB-BF17-5B45034F579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E61746-C82E-4CEF-A65A-ACF2FB832C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A51B0C9-EB32-460D-A9F4-29A2A31B4EA5}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>Compañia</t>
-  </si>
-  <si>
     <t>Linea</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Flexible</t>
+  </si>
+  <si>
+    <t>Compania</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701F962-A46A-46F8-AD27-95F86810D688}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62:J69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,37 +658,37 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -696,25 +696,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="10">
         <v>0.39374999999999999</v>
@@ -727,13 +727,13 @@
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="7">
         <v>7.9</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -741,25 +741,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="10">
         <v>0.55902777777777779</v>
@@ -772,13 +772,13 @@
         <v>4.0277777777777746E-2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="7">
         <v>7.9</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -786,25 +786,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="10">
         <v>0.72986111111111107</v>
@@ -817,13 +817,13 @@
         <v>4.3055555555555625E-2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
         <v>7.9</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -831,25 +831,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="10">
         <v>0.89027777777777772</v>
@@ -862,13 +862,13 @@
         <v>4.0277777777777857E-2</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>7.9</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -876,25 +876,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="10">
         <v>0.27083333333333331</v>
@@ -907,13 +907,13 @@
         <v>3.9583333333333359E-2</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>7.9</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -921,25 +921,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="10">
         <v>0.45208333333333334</v>
@@ -952,13 +952,13 @@
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>7.9</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -966,25 +966,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="10">
         <v>0.625</v>
@@ -997,13 +997,13 @@
         <v>4.0972222222222188E-2</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>7.9</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1011,25 +1011,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="10">
         <v>0.7895833333333333</v>
@@ -1042,13 +1042,13 @@
         <v>4.3750000000000067E-2</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>7.9</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1056,25 +1056,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="10">
         <v>0.36666666666666664</v>
@@ -1087,13 +1087,13 @@
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
         <v>4.2</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1101,25 +1101,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="10">
         <v>0.53333333333333333</v>
@@ -1132,13 +1132,13 @@
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>4.2</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1146,25 +1146,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="10">
         <v>0.71111111111111114</v>
@@ -1177,13 +1177,13 @@
         <v>1.8055555555555491E-2</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>4.2</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1191,25 +1191,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="10">
         <v>0.86805555555555558</v>
@@ -1222,13 +1222,13 @@
         <v>2.1527777777777701E-2</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
         <v>4.2</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1236,25 +1236,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="10">
         <v>0.36666666666666664</v>
@@ -1267,13 +1267,13 @@
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>10.15</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1281,25 +1281,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="10">
         <v>0.52777777777777779</v>
@@ -1312,13 +1312,13 @@
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>6.9</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1326,25 +1326,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="10">
         <v>0.53333333333333333</v>
@@ -1357,13 +1357,13 @@
         <v>6.597222222222221E-2</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
         <v>10.15</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1371,25 +1371,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="10">
         <v>0.71111111111111114</v>
@@ -1402,13 +1402,13 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>10.15</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1416,25 +1416,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="10">
         <v>0.86805555555555558</v>
@@ -1447,13 +1447,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>10.15</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1461,25 +1461,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="10">
         <v>0.27083333333333331</v>
@@ -1492,13 +1492,13 @@
         <v>6.6666666666666707E-2</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" s="7">
         <v>10.15</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1506,25 +1506,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="10">
         <v>0.45208333333333334</v>
@@ -1537,13 +1537,13 @@
         <v>7.3611111111111127E-2</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>10.15</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1551,25 +1551,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="10">
         <v>0.625</v>
@@ -1582,13 +1582,13 @@
         <v>6.0416666666666674E-2</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
         <v>10.15</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1596,25 +1596,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="10">
         <v>0.74305555555555558</v>
@@ -1627,13 +1627,13 @@
         <v>5.8333333333333348E-2</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7">
         <v>10.15</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1641,25 +1641,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="10">
         <v>0.7895833333333333</v>
@@ -1672,13 +1672,13 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
         <v>10.15</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1686,25 +1686,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="10">
         <v>0.49444444444444446</v>
@@ -1717,13 +1717,13 @@
         <v>3.125E-2</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>4.2</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1731,25 +1731,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="10">
         <v>0.66666666666666663</v>
@@ -1762,13 +1762,13 @@
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" s="7">
         <v>4.2</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1776,25 +1776,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="10">
         <v>0.83402777777777781</v>
@@ -1807,13 +1807,13 @@
         <v>2.3611111111111027E-2</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" s="7">
         <v>4.2</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1821,25 +1821,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="10">
         <v>0.5625</v>
@@ -1852,13 +1852,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M27" s="7">
         <v>8.7899999999999991</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1866,25 +1866,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="10">
         <v>0.77083333333333337</v>
@@ -1897,13 +1897,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="7">
         <v>8.7899999999999991</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1911,25 +1911,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" s="10">
         <v>0.3125</v>
@@ -1942,13 +1942,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" s="7">
         <v>10.63</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1956,25 +1956,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H30" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="10">
         <v>0.39583333333333331</v>
@@ -1987,13 +1987,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M30" s="7">
         <v>10.63</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="10">
         <v>0.47916666666666669</v>
@@ -2032,13 +2032,13 @@
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31" s="7">
         <v>10.63</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2046,25 +2046,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="10">
         <v>0.54166666666666663</v>
@@ -2077,13 +2077,13 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" s="7">
         <v>10.63</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2091,25 +2091,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" s="10">
         <v>0.5625</v>
@@ -2122,13 +2122,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" s="7">
         <v>10.63</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2136,25 +2136,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H34" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" s="10">
         <v>0.64583333333333337</v>
@@ -2167,13 +2167,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" s="7">
         <v>10.63</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2181,25 +2181,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" s="10">
         <v>0.72916666666666663</v>
@@ -2212,13 +2212,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M35" s="7">
         <v>10.63</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2226,25 +2226,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" s="10">
         <v>0.75</v>
@@ -2257,13 +2257,13 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M36" s="7">
         <v>10.63</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2271,25 +2271,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H37" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I37" s="10">
         <v>0.8125</v>
@@ -2302,13 +2302,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37" s="7">
         <v>10.63</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2316,25 +2316,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="10">
         <v>0.875</v>
@@ -2347,13 +2347,13 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M38" s="7">
         <v>10.63</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2361,25 +2361,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39" s="10">
         <v>0.5625</v>
@@ -2392,13 +2392,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M39" s="7">
         <v>8.7899999999999991</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2406,25 +2406,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I40" s="10">
         <v>0.75</v>
@@ -2437,13 +2437,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M40" s="7">
         <v>8.7899999999999991</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2451,25 +2451,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I41" s="10">
         <v>0.54166666666666663</v>
@@ -2482,13 +2482,13 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M41" s="7">
         <v>10.63</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H42" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I42" s="10">
         <v>0.5625</v>
@@ -2527,13 +2527,13 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M42" s="7">
         <v>10.63</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2541,25 +2541,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I43" s="10">
         <v>0.625</v>
@@ -2572,13 +2572,13 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M43" s="7">
         <v>10.63</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2586,25 +2586,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H44" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I44" s="10">
         <v>0.75</v>
@@ -2617,13 +2617,13 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M44" s="7">
         <v>10.63</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2631,25 +2631,25 @@
         <v>45</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="10">
         <v>0.85416666666666663</v>
@@ -2662,13 +2662,13 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M45" s="7">
         <v>10.63</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2676,25 +2676,25 @@
         <v>46</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="10">
         <v>0.30208333333333331</v>
@@ -2707,13 +2707,13 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M46" s="7">
         <v>1.92</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2721,25 +2721,25 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H47" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="10">
         <v>0.38541666666666669</v>
@@ -2752,13 +2752,13 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M47" s="7">
         <v>1.92</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2766,25 +2766,25 @@
         <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H48" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I48" s="10">
         <v>0.47916666666666669</v>
@@ -2797,13 +2797,13 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M48" s="7">
         <v>1.92</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2811,25 +2811,25 @@
         <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H49" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I49" s="10">
         <v>0.8125</v>
@@ -2842,13 +2842,13 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M49" s="7">
         <v>1.92</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2856,25 +2856,25 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="E50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H50" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I50" s="10">
         <v>0.55208333333333337</v>
@@ -2887,13 +2887,13 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M50" s="7">
         <v>1.92</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2901,25 +2901,25 @@
         <v>51</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I51" s="10">
         <v>0.75</v>
@@ -2932,13 +2932,13 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M51" s="7">
         <v>1.92</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -2946,34 +2946,34 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L52" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M52" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O52" s="10">
         <v>2.4305555555555556E-2</v>
@@ -2987,34 +2987,34 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="F53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L53" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O53" s="10">
         <v>2.4305555555555556E-2</v>
@@ -3028,34 +3028,34 @@
         <v>54</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="L54" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M54" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O54" s="10">
         <v>1.7361111111111112E-2</v>
@@ -3069,34 +3069,34 @@
         <v>55</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="L55" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M55" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O55" s="10">
         <v>1.7361111111111112E-2</v>
@@ -3110,34 +3110,34 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="L56" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M56" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O56" s="10">
         <v>2.0833333333333332E-2</v>
@@ -3151,34 +3151,34 @@
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="L57" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M57" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O57" s="10">
         <v>2.0833333333333332E-2</v>
@@ -3192,34 +3192,34 @@
         <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L58" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M58" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O58" s="10">
         <v>1.3888888888888888E-2</v>
@@ -3228,7 +3228,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3236,34 +3236,34 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L59" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O59" s="10">
         <v>1.3888888888888888E-2</v>
@@ -3272,7 +3272,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3280,34 +3280,34 @@
         <v>60</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="H60" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L60" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M60" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O60" s="10">
         <v>1.3888888888888888E-2</v>
@@ -3321,34 +3321,34 @@
         <v>61</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="H61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L61" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M61" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O61" s="10">
         <v>1.3888888888888888E-2</v>
@@ -3362,34 +3362,34 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H62" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O62" s="10">
         <v>5.5555555555555558E-3</v>
@@ -3400,34 +3400,34 @@
         <v>63</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H63" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O63" s="10">
         <v>5.5555555555555558E-3</v>
@@ -3438,34 +3438,34 @@
         <v>64</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H64" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O64" s="10">
         <v>8.3333333333333332E-3</v>
@@ -3476,34 +3476,34 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O65" s="10">
         <v>8.3333333333333332E-3</v>
@@ -3514,34 +3514,34 @@
         <v>66</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H66" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O66" s="10">
         <v>1.7361111111111112E-2</v>
@@ -3552,34 +3552,34 @@
         <v>67</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H67" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O67" s="10">
         <v>1.7361111111111112E-2</v>
@@ -3590,34 +3590,34 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H68" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O68" s="10">
         <v>2.4305555555555556E-2</v>
@@ -3628,34 +3628,34 @@
         <v>69</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H69" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O69" s="10">
         <v>2.4305555555555556E-2</v>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E61746-C82E-4CEF-A65A-ACF2FB832C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B873918F-B08E-44AC-823D-A977F20E0506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A51B0C9-EB32-460D-A9F4-29A2A31B4EA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Andar desde Est. Tren a Est, Bus</t>
-  </si>
-  <si>
-    <t>Flexible</t>
   </si>
   <si>
     <t>Compania</t>
@@ -617,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701F962-A46A-46F8-AD27-95F86810D688}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
     <col min="12" max="12" width="11.42578125" style="5"/>
     <col min="13" max="14" width="11.42578125" style="7"/>
     <col min="15" max="15" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="12" customWidth="1"/>
     <col min="17" max="17" width="29.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -658,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -3389,10 +3386,13 @@
         <v>0</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O62" s="10">
-        <v>5.5555555555555558E-3</v>
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3427,10 +3427,13 @@
         <v>0</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O63" s="10">
-        <v>5.5555555555555558E-3</v>
+        <v>0</v>
+      </c>
+      <c r="P63" s="10">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3465,13 +3468,16 @@
         <v>0</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O64" s="10">
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -3503,13 +3509,16 @@
         <v>0</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O65" s="10">
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -3541,13 +3550,16 @@
         <v>0</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O66" s="10">
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>67</v>
       </c>
@@ -3579,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O67" s="10">
+        <v>0</v>
+      </c>
+      <c r="P67" s="10">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -3617,13 +3632,16 @@
         <v>0</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O68" s="10">
+        <v>0</v>
+      </c>
+      <c r="P68" s="10">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -3655,9 +3673,12 @@
         <v>0</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O69" s="10">
+        <v>0</v>
+      </c>
+      <c r="P69" s="10">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B873918F-B08E-44AC-823D-A977F20E0506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E61746-C82E-4CEF-A65A-ACF2FB832C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A51B0C9-EB32-460D-A9F4-29A2A31B4EA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Andar desde Est. Tren a Est, Bus</t>
+  </si>
+  <si>
+    <t>Flexible</t>
   </si>
   <si>
     <t>Compania</t>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701F962-A46A-46F8-AD27-95F86810D688}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +633,7 @@
     <col min="12" max="12" width="11.42578125" style="5"/>
     <col min="13" max="14" width="11.42578125" style="7"/>
     <col min="15" max="15" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="15" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -655,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -3386,13 +3389,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O62" s="10">
-        <v>0</v>
-      </c>
-      <c r="P62" s="10">
-        <v>1.0416666666666666E-2</v>
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3427,13 +3427,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O63" s="10">
-        <v>0</v>
-      </c>
-      <c r="P63" s="10">
-        <v>1.0416666666666666E-2</v>
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3468,16 +3465,13 @@
         <v>0</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O64" s="10">
-        <v>0</v>
-      </c>
-      <c r="P64" s="10">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -3509,16 +3503,13 @@
         <v>0</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O65" s="10">
-        <v>0</v>
-      </c>
-      <c r="P65" s="10">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -3550,16 +3541,13 @@
         <v>0</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O66" s="10">
-        <v>0</v>
-      </c>
-      <c r="P66" s="10">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>67</v>
       </c>
@@ -3591,16 +3579,13 @@
         <v>0</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O67" s="10">
-        <v>0</v>
-      </c>
-      <c r="P67" s="10">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -3632,16 +3617,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O68" s="10">
-        <v>0</v>
-      </c>
-      <c r="P68" s="10">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -3673,12 +3655,9 @@
         <v>0</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O69" s="10">
-        <v>0</v>
-      </c>
-      <c r="P69" s="10">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E61746-C82E-4CEF-A65A-ACF2FB832C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3185A6A-7D5E-45D9-BFC3-497DF441E1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A51B0C9-EB32-460D-A9F4-29A2A31B4EA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Andar desde Est. Tren a Est, Bus</t>
-  </si>
-  <si>
-    <t>Flexible</t>
   </si>
   <si>
     <t>Compania</t>
@@ -618,7 +615,7 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
     <col min="12" max="12" width="11.42578125" style="5"/>
     <col min="13" max="14" width="11.42578125" style="7"/>
     <col min="15" max="15" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="12" customWidth="1"/>
     <col min="17" max="17" width="29.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -658,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -3389,10 +3386,13 @@
         <v>0</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O62" s="10">
-        <v>5.5555555555555558E-3</v>
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3427,10 +3427,13 @@
         <v>0</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O63" s="10">
-        <v>5.5555555555555558E-3</v>
+        <v>0</v>
+      </c>
+      <c r="P63" s="10">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3465,13 +3468,16 @@
         <v>0</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O64" s="10">
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -3503,13 +3509,16 @@
         <v>0</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O65" s="10">
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -3541,13 +3550,16 @@
         <v>0</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O66" s="10">
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>67</v>
       </c>
@@ -3579,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O67" s="10">
+        <v>0</v>
+      </c>
+      <c r="P67" s="10">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -3617,13 +3632,16 @@
         <v>0</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O68" s="10">
+        <v>0</v>
+      </c>
+      <c r="P68" s="10">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -3655,9 +3673,12 @@
         <v>0</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O69" s="10">
+        <v>0</v>
+      </c>
+      <c r="P69" s="10">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3185A6A-7D5E-45D9-BFC3-497DF441E1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F2AEE-8FAE-4A58-8038-ECDEF08EBC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A51B0C9-EB32-460D-A9F4-29A2A31B4EA5}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701F962-A46A-46F8-AD27-95F86810D688}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,10 +3389,10 @@
         <v>46</v>
       </c>
       <c r="O62" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P62" s="10">
         <v>0</v>
-      </c>
-      <c r="P62" s="10">
-        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3430,10 +3430,10 @@
         <v>46</v>
       </c>
       <c r="O63" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P63" s="10">
         <v>0</v>
-      </c>
-      <c r="P63" s="10">
-        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3471,10 +3471,10 @@
         <v>46</v>
       </c>
       <c r="O64" s="10">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="P64" s="10">
         <v>0</v>
-      </c>
-      <c r="P64" s="10">
-        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -3512,10 +3512,10 @@
         <v>46</v>
       </c>
       <c r="O65" s="10">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="P65" s="10">
         <v>0</v>
-      </c>
-      <c r="P65" s="10">
-        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -3553,10 +3553,10 @@
         <v>46</v>
       </c>
       <c r="O66" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="P66" s="10">
         <v>0</v>
-      </c>
-      <c r="P66" s="10">
-        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -3594,10 +3594,10 @@
         <v>46</v>
       </c>
       <c r="O67" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="P67" s="10">
         <v>0</v>
-      </c>
-      <c r="P67" s="10">
-        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -3635,10 +3635,10 @@
         <v>46</v>
       </c>
       <c r="O68" s="10">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="P68" s="10">
         <v>0</v>
-      </c>
-      <c r="P68" s="10">
-        <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -3676,10 +3676,10 @@
         <v>46</v>
       </c>
       <c r="O69" s="10">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="P69" s="10">
         <v>0</v>
-      </c>
-      <c r="P69" s="10">
-        <v>2.4305555555555556E-2</v>
       </c>
     </row>
   </sheetData>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F2AEE-8FAE-4A58-8038-ECDEF08EBC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96D1A8-30D8-42D4-B250-19A63D0C50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A51B0C9-EB32-460D-A9F4-29A2A31B4EA5}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701F962-A46A-46F8-AD27-95F86810D688}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63:P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3392,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="P62" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3433,7 +3433,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="P63" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="P64" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="P65" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="P66" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="P67" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="P68" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="P69" s="10">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
   </sheetData>
